--- a/4-Semestre/Documentação/Requisitos/Requisitos v2.xlsx
+++ b/4-Semestre/Documentação/Requisitos/Requisitos v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\faculdade\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709F14CF-BFA5-49D5-A2FF-4CF1D1E2E388}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68493F63-4CAA-44EA-966D-198EBBF8C4D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,15 +204,6 @@
     <t xml:space="preserve">Tipo de requisito </t>
   </si>
   <si>
-    <t>Aplicação Web(React)</t>
-  </si>
-  <si>
-    <t>A aplicação deve ser responsiva</t>
-  </si>
-  <si>
-    <t>A aplicação deve ter opção dark mode</t>
-  </si>
-  <si>
     <t>O usuario pode customizar a cor da aplicação</t>
   </si>
   <si>
@@ -304,6 +295,15 @@
   </si>
   <si>
     <t>O projeto deverá ter testes de stress</t>
+  </si>
+  <si>
+    <t>Site institucional (Angular)</t>
+  </si>
+  <si>
+    <t>O site institucional deve ser responsivo</t>
+  </si>
+  <si>
+    <t>O site institucional deve ter opção dark mode</t>
   </si>
 </sst>
 </file>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD60D7B-EE42-45BD-BE56-E99291054AA0}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6">
         <v>13</v>
@@ -2299,13 +2299,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E3" s="6">
         <v>5</v>
@@ -2316,13 +2316,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E4" s="6">
         <v>5</v>
@@ -2333,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="6">
         <v>5</v>
@@ -2350,13 +2350,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6">
         <v>5</v>
@@ -2367,13 +2367,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
@@ -2384,13 +2384,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
@@ -2401,13 +2401,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="6">
         <v>5</v>
@@ -2418,13 +2418,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="6">
         <v>8</v>
@@ -2435,13 +2435,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -2452,13 +2452,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -2469,13 +2469,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6">
         <v>5</v>
@@ -2486,13 +2486,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6">
         <v>5</v>
@@ -2503,13 +2503,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="6">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E16" s="6">
         <v>8</v>
@@ -2537,13 +2537,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6">
         <v>13</v>
@@ -2554,13 +2554,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" s="6">
         <v>8</v>
@@ -2571,13 +2571,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="6">
         <v>3</v>
@@ -2588,13 +2588,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" s="6">
         <v>8</v>
@@ -2605,13 +2605,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" s="10">
         <v>5</v>
@@ -2622,13 +2622,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" s="6">
         <v>8</v>
@@ -2639,13 +2639,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -2656,13 +2656,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24" s="6">
         <v>8</v>
@@ -2673,13 +2673,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6">
         <v>13</v>
@@ -2690,13 +2690,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26" s="6">
         <v>8</v>
@@ -2707,13 +2707,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6">
         <v>5</v>
@@ -2724,13 +2724,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" s="9">
         <v>13</v>
@@ -2741,13 +2741,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" s="6">
         <v>5</v>
@@ -2758,13 +2758,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="6">
         <v>5</v>
@@ -2775,13 +2775,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E31" s="6">
         <v>5</v>
@@ -2793,21 +2793,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010045E12DD0B81C5B408AA6296AF4E35DD2" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bbed2ee271c9a94bf4b1faaf870a854c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b123d2ef-f8f8-4b30-aa78-0212f6ddc4cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ffb29aaa3ffc250bdfc81ad3ce1d6ff" ns2:_="">
     <xsd:import namespace="b123d2ef-f8f8-4b30-aa78-0212f6ddc4cc"/>
@@ -2939,24 +2924,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73271AC8-3A08-4E61-9C34-4107FBD43351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97681C4-EA14-416F-B072-40872E20EAEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C948DA6-D02C-46EB-9A00-516086E0070E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2972,4 +2955,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97681C4-EA14-416F-B072-40872E20EAEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73271AC8-3A08-4E61-9C34-4107FBD43351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>